--- a/doc/spec.xlsx
+++ b/doc/spec.xlsx
@@ -20918,6 +20918,14 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
+    <t>理赔申请人身 份证件类型</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际领款人名 称</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -21129,14 +21137,6 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>理赔申请人身 份证件类型</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际领款人名 称</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -21888,7 +21888,7 @@
   <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -21993,7 +21993,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="79" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="76.5">
@@ -31327,7 +31327,7 @@
         <v>92</v>
       </c>
       <c r="V145" t="b">
-        <f t="shared" ref="V145:V176" si="4">EXACT(D145,N145)</f>
+        <f t="shared" ref="V145:V154" si="4">EXACT(D145,N145)</f>
         <v>1</v>
       </c>
       <c r="X145" t="s">
@@ -31953,7 +31953,7 @@
         <v>92</v>
       </c>
       <c r="V155" t="b">
-        <f>EXACT(D155,N155)</f>
+        <f t="shared" ref="V155:V186" si="5">EXACT(D155,N155)</f>
         <v>1</v>
       </c>
       <c r="X155" t="s">
@@ -32016,7 +32016,7 @@
         <v>416</v>
       </c>
       <c r="V156" t="b">
-        <f>EXACT(D156,N156)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X156" t="s">
@@ -32079,7 +32079,7 @@
         <v>529</v>
       </c>
       <c r="V157" t="b">
-        <f>EXACT(D157,N157)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X157" t="s">
@@ -32142,7 +32142,7 @@
         <v>532</v>
       </c>
       <c r="V158" t="b">
-        <f>EXACT(D158,N158)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X158" t="s">
@@ -32205,7 +32205,7 @@
         <v>535</v>
       </c>
       <c r="V159" t="b">
-        <f>EXACT(D159,N159)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X159" t="s">
@@ -32268,7 +32268,7 @@
         <v>92</v>
       </c>
       <c r="V160" t="b">
-        <f>EXACT(D160,N160)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X160" t="s">
@@ -32331,7 +32331,7 @@
         <v>97</v>
       </c>
       <c r="V161" t="b">
-        <f>EXACT(D161,N161)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X161" t="s">
@@ -32392,7 +32392,7 @@
         <v>357</v>
       </c>
       <c r="V162" t="b">
-        <f>EXACT(D162,N162)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X162" t="s">
@@ -32453,7 +32453,7 @@
         <v>540</v>
       </c>
       <c r="V163" t="b">
-        <f>EXACT(D163,N163)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X163" t="s">
@@ -32514,7 +32514,7 @@
         <v>360</v>
       </c>
       <c r="V164" t="b">
-        <f>EXACT(D164,N164)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X164" t="s">
@@ -32575,7 +32575,7 @@
         <v>363</v>
       </c>
       <c r="V165" t="b">
-        <f>EXACT(D165,N165)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X165" t="s">
@@ -32638,7 +32638,7 @@
         <v>378</v>
       </c>
       <c r="V166" t="b">
-        <f>EXACT(D166,N166)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X166" t="s">
@@ -32699,7 +32699,7 @@
         <v>384</v>
       </c>
       <c r="V167" t="b">
-        <f>EXACT(D167,N167)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X167" t="s">
@@ -32762,7 +32762,7 @@
         <v>388</v>
       </c>
       <c r="V168" t="b">
-        <f>EXACT(D168,N168)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X168" t="s">
@@ -32825,7 +32825,7 @@
         <v>392</v>
       </c>
       <c r="V169" t="b">
-        <f>EXACT(D169,N169)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X169" t="s">
@@ -32888,7 +32888,7 @@
         <v>395</v>
       </c>
       <c r="V170" t="b">
-        <f>EXACT(D170,N170)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X170" t="s">
@@ -32951,7 +32951,7 @@
         <v>123</v>
       </c>
       <c r="V171" t="b">
-        <f>EXACT(D171,N171)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X171" t="s">
@@ -33014,7 +33014,7 @@
         <v>546</v>
       </c>
       <c r="V172" t="b">
-        <f>EXACT(D172,N172)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X172" t="s">
@@ -33077,7 +33077,7 @@
         <v>550</v>
       </c>
       <c r="V173" t="b">
-        <f>EXACT(D173,N173)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X173" t="s">
@@ -33140,7 +33140,7 @@
         <v>437</v>
       </c>
       <c r="V174" t="b">
-        <f>EXACT(D174,N174)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X174" t="s">
@@ -33204,7 +33204,7 @@
         <v>441</v>
       </c>
       <c r="V175" t="b">
-        <f>EXACT(D175,N175)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X175" t="s">
@@ -33268,7 +33268,7 @@
         <v>445</v>
       </c>
       <c r="V176" t="b">
-        <f>EXACT(D176,N176)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X176" t="s">
@@ -33331,7 +33331,7 @@
         <v>467</v>
       </c>
       <c r="V177" t="b">
-        <f>EXACT(D177,N177)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X177" t="s">
@@ -33394,7 +33394,7 @@
         <v>471</v>
       </c>
       <c r="V178" t="b">
-        <f>EXACT(D178,N178)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X178" t="s">
@@ -33457,7 +33457,7 @@
         <v>475</v>
       </c>
       <c r="V179" t="b">
-        <f>EXACT(D179,N179)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X179" t="s">
@@ -33520,7 +33520,7 @@
         <v>479</v>
       </c>
       <c r="V180" t="b">
-        <f>EXACT(D180,N180)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X180" t="s">
@@ -33581,7 +33581,7 @@
         <v>483</v>
       </c>
       <c r="V181" t="b">
-        <f>EXACT(D181,N181)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X181" t="s">
@@ -33642,7 +33642,7 @@
         <v>558</v>
       </c>
       <c r="V182" t="b">
-        <f>EXACT(D182,N182)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X182" t="s">
@@ -33705,7 +33705,7 @@
         <v>92</v>
       </c>
       <c r="V183" t="b">
-        <f>EXACT(D183,N183)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X183" t="s">
@@ -33768,7 +33768,7 @@
         <v>97</v>
       </c>
       <c r="V184" t="b">
-        <f>EXACT(D184,N184)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X184" t="s">
@@ -33829,7 +33829,7 @@
         <v>357</v>
       </c>
       <c r="V185" t="b">
-        <f>EXACT(D185,N185)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X185" t="s">
@@ -33890,7 +33890,7 @@
         <v>540</v>
       </c>
       <c r="V186" t="b">
-        <f>EXACT(D186,N186)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X186" t="s">
@@ -33955,7 +33955,7 @@
         <v>565</v>
       </c>
       <c r="V187" t="b">
-        <f>EXACT(D187,N187)</f>
+        <f t="shared" ref="V187:V218" si="6">EXACT(D187,N187)</f>
         <v>1</v>
       </c>
       <c r="X187" t="s">
@@ -34016,7 +34016,7 @@
         <v>360</v>
       </c>
       <c r="V188" t="b">
-        <f>EXACT(D188,N188)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X188" t="s">
@@ -34077,7 +34077,7 @@
         <v>363</v>
       </c>
       <c r="V189" t="b">
-        <f>EXACT(D189,N189)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X189" t="s">
@@ -34140,7 +34140,7 @@
         <v>378</v>
       </c>
       <c r="V190" t="b">
-        <f>EXACT(D190,N190)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X190" t="s">
@@ -34203,7 +34203,7 @@
         <v>381</v>
       </c>
       <c r="V191" t="b">
-        <f>EXACT(D191,N191)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X191" t="s">
@@ -34266,7 +34266,7 @@
         <v>567</v>
       </c>
       <c r="V192" t="b">
-        <f>EXACT(D192,N192)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X192" t="s">
@@ -34330,7 +34330,7 @@
         <v>571</v>
       </c>
       <c r="V193" t="b">
-        <f>EXACT(D193,N193)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X193" t="s">
@@ -34394,7 +34394,7 @@
         <v>574</v>
       </c>
       <c r="V194" t="b">
-        <f>EXACT(D194,N194)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X194" t="s">
@@ -34458,7 +34458,7 @@
         <v>578</v>
       </c>
       <c r="V195" t="b">
-        <f>EXACT(D195,N195)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X195" t="s">
@@ -34522,7 +34522,7 @@
         <v>582</v>
       </c>
       <c r="V196" t="b">
-        <f>EXACT(D196,N196)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X196" t="s">
@@ -34583,7 +34583,7 @@
         <v>384</v>
       </c>
       <c r="V197" t="b">
-        <f>EXACT(D197,N197)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X197" t="s">
@@ -34646,7 +34646,7 @@
         <v>388</v>
       </c>
       <c r="V198" t="b">
-        <f>EXACT(D198,N198)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X198" t="s">
@@ -34709,7 +34709,7 @@
         <v>395</v>
       </c>
       <c r="V199" t="b">
-        <f>EXACT(D199,N199)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X199" t="s">
@@ -34772,7 +34772,7 @@
         <v>585</v>
       </c>
       <c r="V200" t="b">
-        <f>EXACT(D200,N200)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X200" t="s">
@@ -34835,7 +34835,7 @@
         <v>589</v>
       </c>
       <c r="V201" t="b">
-        <f>EXACT(D201,N201)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X201" t="s">
@@ -34898,7 +34898,7 @@
         <v>592</v>
       </c>
       <c r="V202" t="b">
-        <f>EXACT(D202,N202)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X202" t="s">
@@ -34961,7 +34961,7 @@
         <v>596</v>
       </c>
       <c r="V203" t="b">
-        <f>EXACT(D203,N203)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X203" t="s">
@@ -35024,7 +35024,7 @@
         <v>550</v>
       </c>
       <c r="V204" t="b">
-        <f>EXACT(D204,N204)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X204" t="s">
@@ -35087,7 +35087,7 @@
         <v>437</v>
       </c>
       <c r="V205" t="b">
-        <f>EXACT(D205,N205)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X205" t="s">
@@ -35151,7 +35151,7 @@
         <v>602</v>
       </c>
       <c r="V206" t="b">
-        <f>EXACT(D206,N206)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X206" t="s">
@@ -35215,7 +35215,7 @@
         <v>445</v>
       </c>
       <c r="V207" t="b">
-        <f>EXACT(D207,N207)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X207" t="s">
@@ -35278,7 +35278,7 @@
         <v>607</v>
       </c>
       <c r="V208" t="b">
-        <f>EXACT(D208,N208)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X208" t="s">
@@ -35341,7 +35341,7 @@
         <v>471</v>
       </c>
       <c r="V209" t="b">
-        <f>EXACT(D209,N209)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X209" t="s">
@@ -35404,7 +35404,7 @@
         <v>475</v>
       </c>
       <c r="V210" t="b">
-        <f>EXACT(D210,N210)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X210" t="s">
@@ -35467,7 +35467,7 @@
         <v>479</v>
       </c>
       <c r="V211" t="b">
-        <f>EXACT(D211,N211)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X211" t="s">
@@ -35528,7 +35528,7 @@
         <v>483</v>
       </c>
       <c r="V212" t="b">
-        <f>EXACT(D212,N212)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X212" t="s">
@@ -35589,7 +35589,7 @@
         <v>558</v>
       </c>
       <c r="V213" t="b">
-        <f>EXACT(D213,N213)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X213" t="s">
@@ -35652,7 +35652,7 @@
         <v>92</v>
       </c>
       <c r="V214" t="b">
-        <f>EXACT(D214,N214)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X214" t="s">
@@ -35715,7 +35715,7 @@
         <v>97</v>
       </c>
       <c r="V215" t="b">
-        <f>EXACT(D215,N215)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X215" t="s">
@@ -35776,7 +35776,7 @@
         <v>357</v>
       </c>
       <c r="V216" t="b">
-        <f>EXACT(D216,N216)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X216" t="s">
@@ -35837,7 +35837,7 @@
         <v>540</v>
       </c>
       <c r="V217" t="b">
-        <f>EXACT(D217,N217)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X217" t="s">
@@ -35898,7 +35898,7 @@
         <v>360</v>
       </c>
       <c r="V218" t="b">
-        <f>EXACT(D218,N218)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X218" t="s">
@@ -35959,7 +35959,7 @@
         <v>363</v>
       </c>
       <c r="V219" t="b">
-        <f>EXACT(D219,N219)</f>
+        <f t="shared" ref="V219:V236" si="7">EXACT(D219,N219)</f>
         <v>1</v>
       </c>
       <c r="X219" t="s">
@@ -36019,7 +36019,7 @@
         <v>85</v>
       </c>
       <c r="V220" t="b">
-        <f>EXACT(D220,N220)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="X220" t="s">
@@ -36082,7 +36082,7 @@
         <v>381</v>
       </c>
       <c r="V221" t="b">
-        <f>EXACT(D221,N221)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="X221" t="s">
@@ -36143,7 +36143,7 @@
         <v>437</v>
       </c>
       <c r="V222" t="b">
-        <f>EXACT(D222,N222)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="X222" t="s">
@@ -36207,7 +36207,7 @@
         <v>621</v>
       </c>
       <c r="V223" t="b">
-        <f>EXACT(D223,N223)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="X223" t="s">
@@ -36271,7 +36271,7 @@
         <v>624</v>
       </c>
       <c r="V224" t="b">
-        <f>EXACT(D224,N224)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="X224" t="s">
@@ -36332,7 +36332,7 @@
         <v>384</v>
       </c>
       <c r="V225" t="b">
-        <f>EXACT(D225,N225)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="X225" t="s">
@@ -36395,7 +36395,7 @@
         <v>388</v>
       </c>
       <c r="V226" t="b">
-        <f>EXACT(D226,N226)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="X226" t="s">
@@ -36456,7 +36456,7 @@
         <v>395</v>
       </c>
       <c r="V227" t="b">
-        <f>EXACT(D227,N227)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="X227" t="s">
@@ -36519,7 +36519,7 @@
         <v>585</v>
       </c>
       <c r="V228" t="b">
-        <f>EXACT(D228,N228)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="X228" t="s">
@@ -36580,7 +36580,7 @@
         <v>626</v>
       </c>
       <c r="V229" t="b">
-        <f>EXACT(D229,N229)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="X229" t="s">
@@ -36643,7 +36643,7 @@
         <v>400</v>
       </c>
       <c r="V230" t="b">
-        <f>EXACT(D230,N230)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="X230" t="s">
@@ -36706,7 +36706,7 @@
         <v>404</v>
       </c>
       <c r="V231" t="b">
-        <f>EXACT(D231,N231)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="X231" t="s">
@@ -36769,7 +36769,7 @@
         <v>408</v>
       </c>
       <c r="V232" t="b">
-        <f>EXACT(D232,N232)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="X232" t="s">
@@ -36830,7 +36830,7 @@
         <v>424</v>
       </c>
       <c r="V233" t="b">
-        <f>EXACT(D233,N233)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="X233" t="s">
@@ -36893,7 +36893,7 @@
         <v>627</v>
       </c>
       <c r="V234" t="b">
-        <f>EXACT(D234,N234)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="X234" t="s">
@@ -36961,7 +36961,7 @@
         <v>420</v>
       </c>
       <c r="V235" s="39" t="b">
-        <f>EXACT(D235,N235)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X235" t="s">
@@ -37024,7 +37024,7 @@
         <v>97</v>
       </c>
       <c r="V236" t="b">
-        <f>EXACT(D236,N236)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="X236" t="s">
@@ -37150,7 +37150,7 @@
         <v>639</v>
       </c>
       <c r="V238" t="b">
-        <f>EXACT(D238,N238)</f>
+        <f t="shared" ref="V238:V269" si="8">EXACT(D238,N238)</f>
         <v>1</v>
       </c>
       <c r="X238" t="s">
@@ -37213,7 +37213,7 @@
         <v>642</v>
       </c>
       <c r="V239" t="b">
-        <f>EXACT(D239,N239)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X239" t="s">
@@ -37276,7 +37276,7 @@
         <v>550</v>
       </c>
       <c r="V240" t="b">
-        <f>EXACT(D240,N240)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X240" t="s">
@@ -37339,7 +37339,7 @@
         <v>437</v>
       </c>
       <c r="V241" t="b">
-        <f>EXACT(D241,N241)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X241" t="s">
@@ -37403,7 +37403,7 @@
         <v>647</v>
       </c>
       <c r="V242" t="b">
-        <f>EXACT(D242,N242)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X242" t="s">
@@ -37467,7 +37467,7 @@
         <v>445</v>
       </c>
       <c r="V243" t="b">
-        <f>EXACT(D243,N243)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X243" t="s">
@@ -37530,7 +37530,7 @@
         <v>652</v>
       </c>
       <c r="V244" t="b">
-        <f>EXACT(D244,N244)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X244" t="s">
@@ -37593,7 +37593,7 @@
         <v>654</v>
       </c>
       <c r="V245" t="b">
-        <f>EXACT(D245,N245)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X245" t="s">
@@ -37656,7 +37656,7 @@
         <v>656</v>
       </c>
       <c r="V246" t="b">
-        <f>EXACT(D246,N246)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X246" t="s">
@@ -37719,7 +37719,7 @@
         <v>658</v>
       </c>
       <c r="V247" t="b">
-        <f>EXACT(D247,N247)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X247" t="s">
@@ -37780,7 +37780,7 @@
         <v>483</v>
       </c>
       <c r="V248" t="b">
-        <f>EXACT(D248,N248)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X248" t="s">
@@ -37841,7 +37841,7 @@
         <v>357</v>
       </c>
       <c r="V249" t="b">
-        <f>EXACT(D249,N249)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X249" t="s">
@@ -37902,7 +37902,7 @@
         <v>540</v>
       </c>
       <c r="V250" t="b">
-        <f>EXACT(D250,N250)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X250" t="s">
@@ -37963,7 +37963,7 @@
         <v>360</v>
       </c>
       <c r="V251" t="b">
-        <f>EXACT(D251,N251)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X251" t="s">
@@ -38024,7 +38024,7 @@
         <v>363</v>
       </c>
       <c r="V252" t="b">
-        <f>EXACT(D252,N252)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X252" t="s">
@@ -38087,7 +38087,7 @@
         <v>378</v>
       </c>
       <c r="V253" t="b">
-        <f>EXACT(D253,N253)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X253" t="s">
@@ -38150,7 +38150,7 @@
         <v>381</v>
       </c>
       <c r="V254" t="b">
-        <f>EXACT(D254,N254)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X254" t="s">
@@ -38211,7 +38211,7 @@
         <v>384</v>
       </c>
       <c r="V255" t="b">
-        <f>EXACT(D255,N255)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X255" t="s">
@@ -38274,7 +38274,7 @@
         <v>388</v>
       </c>
       <c r="V256" t="b">
-        <f>EXACT(D256,N256)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X256" t="s">
@@ -38335,7 +38335,7 @@
         <v>395</v>
       </c>
       <c r="V257" t="b">
-        <f>EXACT(D257,N257)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X257" t="s">
@@ -38398,7 +38398,7 @@
         <v>585</v>
       </c>
       <c r="V258" t="b">
-        <f>EXACT(D258,N258)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X258" t="s">
@@ -38459,7 +38459,7 @@
         <v>626</v>
       </c>
       <c r="V259" t="b">
-        <f>EXACT(D259,N259)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X259" t="s">
@@ -38522,7 +38522,7 @@
         <v>400</v>
       </c>
       <c r="V260" t="b">
-        <f>EXACT(D260,N260)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X260" t="s">
@@ -38585,7 +38585,7 @@
         <v>404</v>
       </c>
       <c r="V261" t="b">
-        <f>EXACT(D261,N261)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X261" t="s">
@@ -38648,7 +38648,7 @@
         <v>408</v>
       </c>
       <c r="V262" t="b">
-        <f>EXACT(D262,N262)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X262" t="s">
@@ -38709,7 +38709,7 @@
         <v>424</v>
       </c>
       <c r="V263" t="b">
-        <f>EXACT(D263,N263)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X263" t="s">
@@ -38772,7 +38772,7 @@
         <v>627</v>
       </c>
       <c r="V264" t="b">
-        <f>EXACT(D264,N264)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X264" t="s">
@@ -38835,7 +38835,7 @@
         <v>420</v>
       </c>
       <c r="V265" t="b">
-        <f>EXACT(D265,N265)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X265" t="s">
@@ -38898,7 +38898,7 @@
         <v>633</v>
       </c>
       <c r="V266" t="b">
-        <f>EXACT(D266,N266)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X266" t="s">
@@ -38961,7 +38961,7 @@
         <v>636</v>
       </c>
       <c r="V267" t="b">
-        <f>EXACT(D267,N267)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X267" t="s">
@@ -39024,7 +39024,7 @@
         <v>523</v>
       </c>
       <c r="V268" t="b">
-        <f>EXACT(D268,N268)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X268" t="s">
@@ -39087,7 +39087,7 @@
         <v>633</v>
       </c>
       <c r="V269" t="b">
-        <f>EXACT(D269,N269)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X269" t="s">
@@ -39150,7 +39150,7 @@
         <v>668</v>
       </c>
       <c r="V270" t="b">
-        <f>EXACT(D270,N270)</f>
+        <f t="shared" ref="V270:V287" si="9">EXACT(D270,N270)</f>
         <v>1</v>
       </c>
       <c r="X270" t="s">
@@ -39185,7 +39185,7 @@
       <c r="G271" s="23"/>
       <c r="H271" s="23"/>
       <c r="I271" s="80" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="J271" s="43"/>
       <c r="K271" s="53" t="s">
@@ -39213,7 +39213,7 @@
         <v>671</v>
       </c>
       <c r="V271" t="b">
-        <f>EXACT(D271,N271)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X271" t="s">
@@ -39276,7 +39276,7 @@
         <v>674</v>
       </c>
       <c r="V272" t="b">
-        <f>EXACT(D272,N272)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X272" t="s">
@@ -39339,7 +39339,7 @@
         <v>678</v>
       </c>
       <c r="V273" t="b">
-        <f>EXACT(D273,N273)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X273" t="s">
@@ -39402,7 +39402,7 @@
         <v>682</v>
       </c>
       <c r="V274" t="b">
-        <f>EXACT(D274,N274)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X274" t="s">
@@ -39465,7 +39465,7 @@
         <v>550</v>
       </c>
       <c r="V275" t="b">
-        <f>EXACT(D275,N275)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X275" t="s">
@@ -39528,7 +39528,7 @@
         <v>437</v>
       </c>
       <c r="V276" t="b">
-        <f>EXACT(D276,N276)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X276" t="s">
@@ -39592,7 +39592,7 @@
         <v>687</v>
       </c>
       <c r="V277" t="b">
-        <f>EXACT(D277,N277)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X277" t="s">
@@ -39656,7 +39656,7 @@
         <v>445</v>
       </c>
       <c r="V278" t="b">
-        <f>EXACT(D278,N278)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X278" t="s">
@@ -39717,7 +39717,7 @@
         <v>692</v>
       </c>
       <c r="V279" t="b">
-        <f>EXACT(D279,N279)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X279" t="s">
@@ -39780,7 +39780,7 @@
         <v>607</v>
       </c>
       <c r="V280" t="b">
-        <f>EXACT(D280,N280)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X280" t="s">
@@ -39815,7 +39815,7 @@
       <c r="G281" s="23"/>
       <c r="H281" s="23"/>
       <c r="I281" s="80" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="J281" s="43"/>
       <c r="K281" s="43"/>
@@ -39841,7 +39841,7 @@
         <v>694</v>
       </c>
       <c r="V281" t="b">
-        <f>EXACT(D281,N281)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X281" t="s">
@@ -39904,7 +39904,7 @@
         <v>697</v>
       </c>
       <c r="V282" t="b">
-        <f>EXACT(D282,N282)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X282" t="s">
@@ -39967,7 +39967,7 @@
         <v>700</v>
       </c>
       <c r="V283" t="b">
-        <f>EXACT(D283,N283)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X283" t="s">
@@ -40030,7 +40030,7 @@
         <v>704</v>
       </c>
       <c r="V284" t="b">
-        <f>EXACT(D284,N284)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X284" t="s">
@@ -40093,7 +40093,7 @@
         <v>708</v>
       </c>
       <c r="V285" t="b">
-        <f>EXACT(D285,N285)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X285" t="s">
@@ -40154,7 +40154,7 @@
         <v>711</v>
       </c>
       <c r="V286" t="b">
-        <f>EXACT(D286,N286)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X286" t="s">
@@ -40215,7 +40215,7 @@
         <v>509</v>
       </c>
       <c r="V287" t="b">
-        <f>EXACT(D287,N287)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X287" t="s">
@@ -40278,7 +40278,7 @@
         <v>92</v>
       </c>
       <c r="V288" t="b">
-        <f t="shared" ref="V270:V312" si="5">EXACT(D288,N288)</f>
+        <f t="shared" ref="V288:V312" si="10">EXACT(D288,N288)</f>
         <v>1</v>
       </c>
       <c r="X288" t="s">
@@ -40341,7 +40341,7 @@
         <v>97</v>
       </c>
       <c r="V289" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X289" t="s">
@@ -40402,7 +40402,7 @@
         <v>357</v>
       </c>
       <c r="V290" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X290" t="s">
@@ -40463,7 +40463,7 @@
         <v>540</v>
       </c>
       <c r="V291" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X291" t="s">
@@ -40524,7 +40524,7 @@
         <v>360</v>
       </c>
       <c r="V292" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X292" t="s">
@@ -40585,7 +40585,7 @@
         <v>363</v>
       </c>
       <c r="V293" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X293" t="s">
@@ -40646,7 +40646,7 @@
         <v>384</v>
       </c>
       <c r="V294" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X294" t="s">
@@ -40709,7 +40709,7 @@
         <v>388</v>
       </c>
       <c r="V295" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X295" t="s">
@@ -40772,7 +40772,7 @@
         <v>718</v>
       </c>
       <c r="V296" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X296" t="s">
@@ -40835,7 +40835,7 @@
         <v>721</v>
       </c>
       <c r="V297" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X297" t="s">
@@ -40896,7 +40896,7 @@
         <v>558</v>
       </c>
       <c r="V298" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X298" t="s">
@@ -40959,7 +40959,7 @@
         <v>726</v>
       </c>
       <c r="V299" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X299" t="s">
@@ -41020,7 +41020,7 @@
         <v>729</v>
       </c>
       <c r="V300" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X300" t="s">
@@ -41083,7 +41083,7 @@
         <v>92</v>
       </c>
       <c r="V301" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X301" t="s">
@@ -41146,7 +41146,7 @@
         <v>97</v>
       </c>
       <c r="V302" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X302" t="s">
@@ -41207,7 +41207,7 @@
         <v>357</v>
       </c>
       <c r="V303" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X303" t="s">
@@ -41268,7 +41268,7 @@
         <v>384</v>
       </c>
       <c r="V304" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X304" t="s">
@@ -41331,7 +41331,7 @@
         <v>388</v>
       </c>
       <c r="V305" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X305" t="s">
@@ -41392,7 +41392,7 @@
         <v>395</v>
       </c>
       <c r="V306" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X306" t="s">
@@ -41455,7 +41455,7 @@
         <v>736</v>
       </c>
       <c r="V307" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X307" t="s">
@@ -41520,7 +41520,7 @@
         <v>740</v>
       </c>
       <c r="V308" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X308" t="s">
@@ -41584,7 +41584,7 @@
         <v>744</v>
       </c>
       <c r="V309" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X309" t="s">
@@ -41647,7 +41647,7 @@
         <v>748</v>
       </c>
       <c r="V310" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X310" t="s">
@@ -41710,7 +41710,7 @@
         <v>92</v>
       </c>
       <c r="V311" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X311" t="s">
@@ -41773,7 +41773,7 @@
         <v>97</v>
       </c>
       <c r="V312" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X312" t="s">
@@ -41834,7 +41834,7 @@
         <v>357</v>
       </c>
       <c r="V313" t="b">
-        <f t="shared" ref="V313:V321" si="6">EXACT(D313,N313)</f>
+        <f t="shared" ref="V313:V321" si="11">EXACT(D313,N313)</f>
         <v>1</v>
       </c>
       <c r="X313" t="s">
@@ -41895,7 +41895,7 @@
         <v>384</v>
       </c>
       <c r="V314" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X314" t="s">
@@ -41958,7 +41958,7 @@
         <v>388</v>
       </c>
       <c r="V315" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X315" t="s">
@@ -42019,7 +42019,7 @@
         <v>395</v>
       </c>
       <c r="V316" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X316" t="s">
@@ -42082,7 +42082,7 @@
         <v>736</v>
       </c>
       <c r="V317" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X317" t="s">
@@ -42147,7 +42147,7 @@
         <v>740</v>
       </c>
       <c r="V318" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X318" t="s">
@@ -42212,7 +42212,7 @@
         <v>758</v>
       </c>
       <c r="V319" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X319" t="s">
@@ -42276,7 +42276,7 @@
         <v>744</v>
       </c>
       <c r="V320" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X320" t="s">
@@ -42339,7 +42339,7 @@
         <v>748</v>
       </c>
       <c r="V321" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X321" t="s">
@@ -42404,7 +42404,7 @@
         <v>767</v>
       </c>
       <c r="V322" t="b">
-        <f t="shared" ref="V322:V353" si="7">EXACT(D322,N322)</f>
+        <f t="shared" ref="V322:V353" si="12">EXACT(D322,N322)</f>
         <v>1</v>
       </c>
       <c r="X322" t="s">
@@ -42469,7 +42469,7 @@
         <v>772</v>
       </c>
       <c r="V323" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X323" t="s">
@@ -42532,7 +42532,7 @@
         <v>776</v>
       </c>
       <c r="V324" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X324" t="s">
@@ -42598,7 +42598,7 @@
         <v>780</v>
       </c>
       <c r="V325" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X325" t="s">
@@ -42661,7 +42661,7 @@
         <v>784</v>
       </c>
       <c r="V326" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X326" t="s">
@@ -42726,7 +42726,7 @@
         <v>789</v>
       </c>
       <c r="V327" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X327" t="s">
@@ -42789,7 +42789,7 @@
         <v>793</v>
       </c>
       <c r="V328" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X328" t="s">
@@ -42854,7 +42854,7 @@
         <v>798</v>
       </c>
       <c r="V329" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X329" t="s">
@@ -42917,7 +42917,7 @@
         <v>802</v>
       </c>
       <c r="V330" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X330" t="s">
@@ -42982,7 +42982,7 @@
         <v>807</v>
       </c>
       <c r="V331" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X331" t="s">
@@ -43045,7 +43045,7 @@
         <v>133</v>
       </c>
       <c r="V332" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X332" t="s">
@@ -43110,7 +43110,7 @@
         <v>815</v>
       </c>
       <c r="V333" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X333" t="s">
@@ -43173,7 +43173,7 @@
         <v>819</v>
       </c>
       <c r="V334" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X334" t="s">
@@ -43238,7 +43238,7 @@
         <v>824</v>
       </c>
       <c r="V335" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X335" t="s">
@@ -43301,7 +43301,7 @@
         <v>828</v>
       </c>
       <c r="V336" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X336" t="s">
@@ -43364,7 +43364,7 @@
         <v>832</v>
       </c>
       <c r="V337" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X337" t="s">
@@ -43429,7 +43429,7 @@
         <v>837</v>
       </c>
       <c r="V338" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X338" t="s">
@@ -43494,7 +43494,7 @@
         <v>842</v>
       </c>
       <c r="V339" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X339" t="s">
@@ -43557,7 +43557,7 @@
         <v>846</v>
       </c>
       <c r="V340" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X340" t="s">
@@ -43620,7 +43620,7 @@
         <v>850</v>
       </c>
       <c r="V341" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X341" t="s">
@@ -43685,7 +43685,7 @@
         <v>855</v>
       </c>
       <c r="V342" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X342" t="s">
@@ -43750,7 +43750,7 @@
         <v>860</v>
       </c>
       <c r="V343" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X343" t="s">
@@ -43815,7 +43815,7 @@
         <v>865</v>
       </c>
       <c r="V344" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X344" t="s">
@@ -43878,7 +43878,7 @@
         <v>869</v>
       </c>
       <c r="V345" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X345" t="s">
@@ -43943,7 +43943,7 @@
         <v>874</v>
       </c>
       <c r="V346" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X346" t="s">
@@ -44008,7 +44008,7 @@
         <v>879</v>
       </c>
       <c r="V347" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X347" t="s">
@@ -44073,7 +44073,7 @@
         <v>884</v>
       </c>
       <c r="V348" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X348" t="s">
@@ -44138,7 +44138,7 @@
         <v>888</v>
       </c>
       <c r="V349" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X349" t="s">
@@ -44203,7 +44203,7 @@
         <v>893</v>
       </c>
       <c r="V350" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X350" t="s">
@@ -44266,7 +44266,7 @@
         <v>897</v>
       </c>
       <c r="V351" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X351" t="s">
@@ -44331,7 +44331,7 @@
         <v>902</v>
       </c>
       <c r="V352" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X352" t="s">
@@ -44396,7 +44396,7 @@
         <v>907</v>
       </c>
       <c r="V353" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X353" t="s">
@@ -44461,7 +44461,7 @@
         <v>912</v>
       </c>
       <c r="V354" t="b">
-        <f t="shared" ref="V354:V374" si="8">EXACT(D354,N354)</f>
+        <f t="shared" ref="V354:V374" si="13">EXACT(D354,N354)</f>
         <v>1</v>
       </c>
       <c r="X354" t="s">
@@ -44529,7 +44529,7 @@
         <v>917</v>
       </c>
       <c r="V355" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X355" t="s">
@@ -44594,7 +44594,7 @@
         <v>922</v>
       </c>
       <c r="V356" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X356" t="s">
@@ -44657,7 +44657,7 @@
         <v>926</v>
       </c>
       <c r="V357" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X357" t="s">
@@ -44722,7 +44722,7 @@
         <v>931</v>
       </c>
       <c r="V358" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X358" t="s">
@@ -44788,7 +44788,7 @@
         <v>935</v>
       </c>
       <c r="V359" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X359" t="s">
@@ -44852,7 +44852,7 @@
         <v>939</v>
       </c>
       <c r="V360" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X360" t="s">
@@ -44916,7 +44916,7 @@
         <v>943</v>
       </c>
       <c r="V361" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X361" t="s">
@@ -44982,7 +44982,7 @@
         <v>945</v>
       </c>
       <c r="V362" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X362" t="s">
@@ -45045,7 +45045,7 @@
         <v>950</v>
       </c>
       <c r="V363" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X363" t="s">
@@ -45110,7 +45110,7 @@
         <v>955</v>
       </c>
       <c r="V364" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X364" t="s">
@@ -45173,7 +45173,7 @@
         <v>959</v>
       </c>
       <c r="V365" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X365" t="s">
@@ -45238,7 +45238,7 @@
         <v>964</v>
       </c>
       <c r="V366" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X366" t="s">
@@ -45301,7 +45301,7 @@
         <v>968</v>
       </c>
       <c r="V367" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X367" t="s">
@@ -45366,7 +45366,7 @@
         <v>972</v>
       </c>
       <c r="V368" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X368" t="s">
@@ -45431,7 +45431,7 @@
         <v>976</v>
       </c>
       <c r="V369" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X369" t="s">
@@ -45496,7 +45496,7 @@
         <v>980</v>
       </c>
       <c r="V370" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X370" t="s">
@@ -45559,7 +45559,7 @@
         <v>984</v>
       </c>
       <c r="V371" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X371" t="s">
@@ -45624,7 +45624,7 @@
         <v>989</v>
       </c>
       <c r="V372" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X372" t="s">
@@ -45687,7 +45687,7 @@
         <v>993</v>
       </c>
       <c r="V373" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X373" t="s">
@@ -45752,7 +45752,7 @@
         <v>998</v>
       </c>
       <c r="V374" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X374" t="s">
@@ -45817,7 +45817,7 @@
         <v>1003</v>
       </c>
       <c r="V375" t="b">
-        <f t="shared" ref="V375:V406" si="9">EXACT(D375,N375)</f>
+        <f t="shared" ref="V375:V406" si="14">EXACT(D375,N375)</f>
         <v>1</v>
       </c>
       <c r="X375" t="s">
@@ -45882,7 +45882,7 @@
         <v>767</v>
       </c>
       <c r="V376" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X376" t="s">
@@ -45947,7 +45947,7 @@
         <v>772</v>
       </c>
       <c r="V377" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X377" t="s">
@@ -46010,7 +46010,7 @@
         <v>1016</v>
       </c>
       <c r="V378" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X378" t="s">
@@ -46075,7 +46075,7 @@
         <v>1021</v>
       </c>
       <c r="V379" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X379" t="s">
@@ -46140,7 +46140,7 @@
         <v>1026</v>
       </c>
       <c r="V380" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X380" t="s">
@@ -46205,7 +46205,7 @@
         <v>1030</v>
       </c>
       <c r="V381" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X381" t="s">
@@ -46268,7 +46268,7 @@
         <v>1034</v>
       </c>
       <c r="V382" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X382" t="s">
@@ -46333,7 +46333,7 @@
         <v>1039</v>
       </c>
       <c r="V383" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X383" t="s">
@@ -46398,7 +46398,7 @@
         <v>1044</v>
       </c>
       <c r="V384" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X384" t="s">
@@ -46461,7 +46461,7 @@
         <v>1049</v>
       </c>
       <c r="V385" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X385" t="s">
@@ -46526,7 +46526,7 @@
         <v>1053</v>
       </c>
       <c r="V386" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X386" t="s">
@@ -46591,7 +46591,7 @@
         <v>1058</v>
       </c>
       <c r="V387" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X387" t="s">
@@ -46656,7 +46656,7 @@
         <v>1063</v>
       </c>
       <c r="V388" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X388" t="s">
@@ -46721,7 +46721,7 @@
         <v>1068</v>
       </c>
       <c r="V389" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X389" t="s">
@@ -46786,7 +46786,7 @@
         <v>1073</v>
       </c>
       <c r="V390" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X390" t="s">
@@ -46851,7 +46851,7 @@
         <v>1078</v>
       </c>
       <c r="V391" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X391" t="s">
@@ -46916,7 +46916,7 @@
         <v>1083</v>
       </c>
       <c r="V392" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X392" t="s">
@@ -46979,7 +46979,7 @@
         <v>1087</v>
       </c>
       <c r="V393" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X393" t="s">
@@ -47042,7 +47042,7 @@
         <v>1091</v>
       </c>
       <c r="V394" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X394" t="s">
@@ -47107,7 +47107,7 @@
         <v>1096</v>
       </c>
       <c r="V395" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X395" t="s">
@@ -47170,7 +47170,7 @@
         <v>1100</v>
       </c>
       <c r="V396" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X396" t="s">
@@ -47233,7 +47233,7 @@
         <v>1104</v>
       </c>
       <c r="V397" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X397" t="s">
@@ -47298,7 +47298,7 @@
         <v>1109</v>
       </c>
       <c r="V398" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X398" t="s">
@@ -47361,7 +47361,7 @@
         <v>1113</v>
       </c>
       <c r="V399" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X399" t="s">
@@ -47426,7 +47426,7 @@
         <v>1118</v>
       </c>
       <c r="V400" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X400" t="s">
@@ -47489,7 +47489,7 @@
         <v>1122</v>
       </c>
       <c r="V401" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X401" t="s">
@@ -47554,7 +47554,7 @@
         <v>1126</v>
       </c>
       <c r="V402" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X402" t="s">
@@ -47619,7 +47619,7 @@
         <v>1130</v>
       </c>
       <c r="V403" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X403" t="s">
@@ -47684,7 +47684,7 @@
         <v>1135</v>
       </c>
       <c r="V404" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X404" t="s">
@@ -47747,7 +47747,7 @@
         <v>1139</v>
       </c>
       <c r="V405" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X405" t="s">
@@ -47812,7 +47812,7 @@
         <v>1143</v>
       </c>
       <c r="V406" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X406" t="s">
@@ -47877,7 +47877,7 @@
         <v>1147</v>
       </c>
       <c r="V407" t="b">
-        <f t="shared" ref="V407:V443" si="10">EXACT(D407,N407)</f>
+        <f t="shared" ref="V407:V443" si="15">EXACT(D407,N407)</f>
         <v>1</v>
       </c>
       <c r="X407" t="s">
@@ -47940,7 +47940,7 @@
         <v>1151</v>
       </c>
       <c r="V408" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X408" t="s">
@@ -48003,7 +48003,7 @@
         <v>1155</v>
       </c>
       <c r="V409" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X409" t="s">
@@ -48068,7 +48068,7 @@
         <v>1160</v>
       </c>
       <c r="V410" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X410" t="s">
@@ -48133,7 +48133,7 @@
         <v>1164</v>
       </c>
       <c r="V411" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X411" t="s">
@@ -48196,7 +48196,7 @@
         <v>1168</v>
       </c>
       <c r="V412" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X412" t="s">
@@ -48262,7 +48262,7 @@
         <v>1173</v>
       </c>
       <c r="V413" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X413" t="s">
@@ -48328,7 +48328,7 @@
         <v>1177</v>
       </c>
       <c r="V414" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X414" t="s">
@@ -48393,7 +48393,7 @@
         <v>453</v>
       </c>
       <c r="V415" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X415" t="s">
@@ -48456,7 +48456,7 @@
         <v>1184</v>
       </c>
       <c r="V416" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X416" t="s">
@@ -48521,7 +48521,7 @@
         <v>888</v>
       </c>
       <c r="V417" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X417" t="s">
@@ -48586,7 +48586,7 @@
         <v>893</v>
       </c>
       <c r="V418" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X418" t="s">
@@ -48651,7 +48651,7 @@
         <v>1192</v>
       </c>
       <c r="V419" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X419" t="s">
@@ -48716,7 +48716,7 @@
         <v>437</v>
       </c>
       <c r="V420" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X420" t="s">
@@ -48782,7 +48782,7 @@
         <v>935</v>
       </c>
       <c r="V421" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X421" t="s">
@@ -48847,7 +48847,7 @@
         <v>1198</v>
       </c>
       <c r="V422" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X422" t="s">
@@ -48912,7 +48912,7 @@
         <v>1203</v>
       </c>
       <c r="V423" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X423" t="s">
@@ -48975,7 +48975,7 @@
         <v>1207</v>
       </c>
       <c r="V424" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X424" t="s">
@@ -49038,7 +49038,7 @@
         <v>1211</v>
       </c>
       <c r="V425" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X425" t="s">
@@ -49101,7 +49101,7 @@
         <v>1213</v>
       </c>
       <c r="V426" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X426" t="s">
@@ -49167,7 +49167,7 @@
         <v>1216</v>
       </c>
       <c r="V427" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X427" t="s">
@@ -49231,7 +49231,7 @@
         <v>1219</v>
       </c>
       <c r="V428" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X428" t="s">
@@ -49297,7 +49297,7 @@
         <v>1223</v>
       </c>
       <c r="V429" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X429" t="s">
@@ -49360,7 +49360,7 @@
         <v>1227</v>
       </c>
       <c r="V430" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X430" t="s">
@@ -49423,7 +49423,7 @@
         <v>1231</v>
       </c>
       <c r="V431" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X431" t="s">
@@ -49487,7 +49487,7 @@
         <v>1234</v>
       </c>
       <c r="V432" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X432" t="s">
@@ -49550,7 +49550,7 @@
         <v>1238</v>
       </c>
       <c r="V433" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X433" t="s">
@@ -49613,7 +49613,7 @@
         <v>1242</v>
       </c>
       <c r="V434" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X434" t="s">
@@ -49676,7 +49676,7 @@
         <v>1244</v>
       </c>
       <c r="V435" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X435" t="s">
@@ -49739,7 +49739,7 @@
         <v>1248</v>
       </c>
       <c r="V436" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X436" t="s">
@@ -49802,7 +49802,7 @@
         <v>1252</v>
       </c>
       <c r="V437" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X437" t="s">
@@ -49863,7 +49863,7 @@
         <v>1255</v>
       </c>
       <c r="V438" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X438" t="s">
@@ -49926,7 +49926,7 @@
         <v>1259</v>
       </c>
       <c r="V439" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X439" t="s">
@@ -49989,7 +49989,7 @@
         <v>1263</v>
       </c>
       <c r="V440" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X440" t="s">
@@ -50052,7 +50052,7 @@
         <v>1267</v>
       </c>
       <c r="V441" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X441" t="s">
@@ -50115,7 +50115,7 @@
         <v>1271</v>
       </c>
       <c r="V442" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X442" t="s">
@@ -50179,7 +50179,7 @@
         <v>1274</v>
       </c>
       <c r="V443" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
